--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">Task description </t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>google sheet InstructorClassSheet</t>
+  </si>
+  <si>
+    <t>Create new tab function (google api)</t>
+  </si>
+  <si>
+    <t>function to lock cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share with email address </t>
   </si>
 </sst>
 </file>
@@ -401,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -535,6 +544,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
